--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3513.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3513.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.472553235021673</v>
+        <v>2.276194334030151</v>
       </c>
       <c r="B1">
-        <v>2.763769387341196</v>
+        <v>2.766923904418945</v>
       </c>
       <c r="C1">
-        <v>3.573511277840877</v>
+        <v>2.115238666534424</v>
       </c>
       <c r="D1">
-        <v>3.912190414486345</v>
+        <v>1.976908206939697</v>
       </c>
       <c r="E1">
-        <v>1.205958761629181</v>
+        <v>2.001348257064819</v>
       </c>
     </row>
   </sheetData>
